--- a/biology/Médecine/Hôpitaux_universitaires_Paris_Seine-Saint-Denis/Hôpitaux_universitaires_Paris_Seine-Saint-Denis.xlsx
+++ b/biology/Médecine/Hôpitaux_universitaires_Paris_Seine-Saint-Denis/Hôpitaux_universitaires_Paris_Seine-Saint-Denis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_Paris_Seine-Saint-Denis</t>
+          <t>Hôpitaux_universitaires_Paris_Seine-Saint-Denis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Hôpitaux universitaires Paris Seine-Saint-Denis, constituent le groupe hospitalo-universitaire de Seine-Saint-Denis. Il est l'un des douze groupes hospitaliers de l'Assistance publique - Hôpitaux de Paris (APHP) et est associé au groupement hospitalier de territoire Grand Paris Nord Est.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_Paris_Seine-Saint-Denis</t>
+          <t>Hôpitaux_universitaires_Paris_Seine-Saint-Denis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Établissements
-Le groupe hospitalo-universitaire est composé de trois établissement hospitaliers[1]
+          <t>Établissements</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le groupe hospitalo-universitaire est composé de trois établissement hospitaliers
 Hôpital Avicenne à Bobigny,
 Hôpital Jean-Verdier à Bondy,
-Hôpital René-Muret-Bigottini à Sevran / Aulnay-sous-Bois.
-Université
-L'Unité de formation et de recherche "Santé Médecine Biologie Humaine" en constitue la partie universitaire et fait partie de l'Université Sorbonne Paris Nord.
-</t>
+Hôpital René-Muret-Bigottini à Sevran / Aulnay-sous-Bois.</t>
         </is>
       </c>
     </row>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pitaux_universitaires_Paris_Seine-Saint-Denis</t>
+          <t>Hôpitaux_universitaires_Paris_Seine-Saint-Denis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Organisation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Université</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Unité de formation et de recherche "Santé Médecine Biologie Humaine" en constitue la partie universitaire et fait partie de l'Université Sorbonne Paris Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpitaux_universitaires_Paris_Seine-Saint-Denis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pitaux_universitaires_Paris_Seine-Saint-Denis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Formation et recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
